--- a/First-Responder-Kit/sp_Blitz-CheckID-List.xlsx
+++ b/First-Responder-Kit/sp_Blitz-CheckID-List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="940" windowWidth="22420" windowHeight="19620"/>
+    <workbookView xWindow="54600" yWindow="3980" windowWidth="34000" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="sp_Blitz" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <author>Randy Knight</author>
   </authors>
   <commentList>
-    <comment ref="A132" authorId="0">
+    <comment ref="A79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="372">
   <si>
     <t>Backups Not Performed Recently</t>
   </si>
@@ -712,9 +712,6 @@
     <t>Web Assistant Procedures</t>
   </si>
   <si>
-    <t>affinity64mask</t>
-  </si>
-  <si>
     <t>affinity64 I/O mask</t>
   </si>
   <si>
@@ -844,9 +841,6 @@
     <t>For updates, visit:</t>
   </si>
   <si>
-    <t>http://www.BrentOzar.com/blitz/documentation/</t>
-  </si>
-  <si>
     <t>Config Not Running at Set Value</t>
   </si>
   <si>
@@ -1126,9 +1120,6 @@
     <t>http://BrentOzar.com/go/parameterization</t>
   </si>
   <si>
-    <t>sp_Blitz® Check ID List - v42 2015-09-07</t>
-  </si>
-  <si>
     <t>Query Store Disabled</t>
   </si>
   <si>
@@ -1136,6 +1127,54 @@
   </si>
   <si>
     <t>Plan Guides Failing</t>
+  </si>
+  <si>
+    <t>Deprecated</t>
+  </si>
+  <si>
+    <t>Yes, gone since v43</t>
+  </si>
+  <si>
+    <t>sp_Blitz® Check ID List - v44 2016-01-05</t>
+  </si>
+  <si>
+    <t>FindingsGroupPriorTo2016</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Yes, gone</t>
+  </si>
+  <si>
+    <t>File Configuration</t>
+  </si>
+  <si>
+    <t>http://www.BrentOzar.com/blitz/</t>
+  </si>
+  <si>
+    <t>affinity64 mask</t>
+  </si>
+  <si>
+    <t>backup checksum default</t>
+  </si>
+  <si>
+    <t>backup compression default</t>
+  </si>
+  <si>
+    <t>common criteria compliance enabled</t>
+  </si>
+  <si>
+    <t>EKM provider enabled</t>
+  </si>
+  <si>
+    <t>filestream access level</t>
+  </si>
+  <si>
+    <t>Too Much Free Memory</t>
+  </si>
+  <si>
+    <t>http://BrentOzar.com/go/freememory</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1352,64 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1321,6 +1417,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G235" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A4:G235"/>
+  <sortState ref="A5:G235">
+    <sortCondition ref="B5:B235"/>
+    <sortCondition ref="C5:C235"/>
+    <sortCondition ref="D5:D235"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="CheckID" dataDxfId="3"/>
+    <tableColumn id="2" name="Priority"/>
+    <tableColumn id="3" name="FindingsGroup"/>
+    <tableColumn id="4" name="Finding"/>
+    <tableColumn id="5" name="URL" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" name="Deprecated" dataDxfId="1"/>
+    <tableColumn id="7" name="FindingsGroupPriorTo2016" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1610,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E229"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1621,28 +1738,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="4"/>
+    <col min="6" max="6" width="13.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1658,27 +1777,33 @@
       <c r="E4" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>89</v>
+        <v>336</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1687,168 +1812,168 @@
         <v>89</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
       <c r="B7" s="4">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
       <c r="B8" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>119</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>89</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>90</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>159</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>126</v>
+      </c>
+      <c r="B15" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4">
-        <v>200</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4">
-        <v>150</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4">
-        <v>200</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4">
-        <v>100</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4">
-        <v>100</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="B16" s="4">
         <v>10</v>
@@ -1857,15 +1982,15 @@
         <v>92</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>19</v>
+        <v>334</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4">
         <v>10</v>
@@ -1874,1732 +1999,1780 @@
         <v>92</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B19" s="4">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>25</v>
+        <v>252</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="B20" s="4">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>27</v>
+        <v>303</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="B21" s="4">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>28</v>
+        <v>267</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="B22" s="4">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="B23" s="4">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>31</v>
+        <v>353</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B24" s="4">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B26" s="4">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>142</v>
+        <v>235</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>206</v>
+        <v>7</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B28" s="4">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="B29" s="4">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>142</v>
+        <v>341</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="B30" s="4">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>142</v>
+        <v>342</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B31" s="4">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>142</v>
+        <v>253</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>22</v>
-      </c>
-      <c r="B32" s="4">
-        <v>200</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="B32" s="11">
+        <v>20</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B33" s="4">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B34" s="4">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B35" s="4">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="B36" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="B37" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="B38" s="4">
-        <v>200</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="B39" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B40" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B41" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B42" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="B43" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="B44" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="B45" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>77</v>
+      </c>
+      <c r="B46" s="4">
         <v>50</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>22</v>
-      </c>
-      <c r="B46" s="4">
-        <v>200</v>
-      </c>
       <c r="C46" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B47" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>52</v>
+        <v>312</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="B48" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>142</v>
+        <v>257</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="B49" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>142</v>
+        <v>273</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B50" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B51" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
+        <v>14</v>
+      </c>
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="4">
-        <v>200</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E52" s="4" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="B53" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>142</v>
+        <v>268</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B54" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>142</v>
+        <v>249</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B55" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="B56" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>142</v>
+        <v>307</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="B57" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>142</v>
+        <v>270</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B58" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="B59" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>142</v>
+        <v>349</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B60" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>22</v>
-      </c>
-      <c r="B61" s="4">
-        <v>200</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>142</v>
+        <v>160</v>
+      </c>
+      <c r="B61" s="9">
+        <v>100</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B62" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="B63" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>142</v>
+        <v>278</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B64" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B65" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B66" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B67" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B68" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B69" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B70" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B71" s="4">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B72" s="4">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B73" s="4">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="B74" s="4">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="B75" s="4">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>142</v>
+        <v>275</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B76" s="4">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>142</v>
+        <v>240</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B77" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B78" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B79" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B80" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B81" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B82" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B83" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="B84" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B85" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B86" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B87" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B88" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B89" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B90" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B91" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B92" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B93" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B94" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
+        <v>158</v>
+      </c>
+      <c r="B95" s="9">
+        <v>170</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>82</v>
+      </c>
+      <c r="B96" s="4">
+        <v>170</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>69</v>
+      </c>
+      <c r="B97" s="4">
+        <v>170</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>41</v>
+      </c>
+      <c r="B98" s="4">
+        <v>170</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
         <v>24</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B99" s="4">
+        <v>170</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>25</v>
+      </c>
+      <c r="B100" s="4">
+        <v>170</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>40</v>
+      </c>
+      <c r="B101" s="4">
+        <v>170</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>42</v>
+      </c>
+      <c r="B102" s="4">
+        <v>170</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>8</v>
+      </c>
+      <c r="B103" s="4">
+        <v>190</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>127</v>
+      </c>
+      <c r="B104" s="4">
+        <v>200</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>3</v>
+      </c>
+      <c r="B105" s="4">
+        <v>200</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>70</v>
+      </c>
+      <c r="B106" s="4">
+        <v>200</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>123</v>
+      </c>
+      <c r="B107" s="4">
+        <v>200</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>116</v>
+      </c>
+      <c r="B108" s="4">
+        <v>200</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>53</v>
+      </c>
+      <c r="B109" s="4">
+        <v>200</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>76</v>
+      </c>
+      <c r="B110" s="4">
+        <v>200</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>58</v>
+      </c>
+      <c r="B111" s="4">
+        <v>200</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>21</v>
+      </c>
+      <c r="B112" s="4">
+        <v>200</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
         <v>20</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
-        <v>25</v>
-      </c>
-      <c r="B96" s="4">
-        <v>100</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
-        <v>26</v>
-      </c>
-      <c r="B97" s="4">
-        <v>20</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+      <c r="B113" s="4">
+        <v>200</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>49</v>
+      </c>
+      <c r="B114" s="4">
+        <v>200</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>19</v>
+      </c>
+      <c r="B115" s="4">
+        <v>200</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
         <v>27</v>
       </c>
-      <c r="B98" s="4">
-        <v>200</v>
-      </c>
-      <c r="C98" s="4" t="s">
+      <c r="B116" s="4">
+        <v>200</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D116" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E116" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>29</v>
+      </c>
+      <c r="B117" s="4">
+        <v>200</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
         <v>28</v>
       </c>
-      <c r="B99" s="4">
-        <v>200</v>
-      </c>
-      <c r="C99" s="4" t="s">
+      <c r="B118" s="4">
+        <v>200</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D118" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E118" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
-        <v>29</v>
-      </c>
-      <c r="B100" s="4">
-        <v>200</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <v>30</v>
-      </c>
-      <c r="B101" s="4">
-        <v>50</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
-        <v>31</v>
-      </c>
-      <c r="B102" s="4">
-        <v>50</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
-        <v>32</v>
-      </c>
-      <c r="B103" s="4">
-        <v>110</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
-        <v>33</v>
-      </c>
-      <c r="B104" s="4">
-        <v>200</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
-        <v>34</v>
-      </c>
-      <c r="B105" s="4">
-        <v>1</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
-        <v>35</v>
-      </c>
-      <c r="B106" s="4">
-        <v>100</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
-        <v>36</v>
-      </c>
-      <c r="B107" s="4">
-        <v>100</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
-        <v>37</v>
-      </c>
-      <c r="B108" s="4">
-        <v>100</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
-        <v>38</v>
-      </c>
-      <c r="B109" s="4">
-        <v>110</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
-        <v>39</v>
-      </c>
-      <c r="B110" s="4">
-        <v>110</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>40</v>
-      </c>
-      <c r="B111" s="4">
-        <v>100</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
-        <v>41</v>
-      </c>
-      <c r="B112" s="4">
-        <v>100</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
-        <v>42</v>
-      </c>
-      <c r="B113" s="4">
-        <v>100</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
-        <v>44</v>
-      </c>
-      <c r="B114" s="4">
-        <v>110</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
-        <v>45</v>
-      </c>
-      <c r="B115" s="4">
-        <v>110</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
-        <v>46</v>
-      </c>
-      <c r="B116" s="4">
-        <v>100</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
-        <v>47</v>
-      </c>
-      <c r="B117" s="4">
-        <v>100</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
-        <v>48</v>
-      </c>
-      <c r="B118" s="4">
-        <v>100</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B119" s="4">
         <v>200</v>
@@ -3608,1859 +3781,1991 @@
         <v>97</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B120" s="4">
+        <v>200</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>94</v>
+      </c>
+      <c r="B121" s="4">
+        <v>200</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>59</v>
+      </c>
+      <c r="B122" s="4">
+        <v>200</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>98</v>
+      </c>
+      <c r="B123" s="4">
+        <v>200</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>96</v>
+      </c>
+      <c r="B124" s="4">
+        <v>200</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>61</v>
+      </c>
+      <c r="B125" s="4">
+        <v>200</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>73</v>
+      </c>
+      <c r="B126" s="4">
+        <v>200</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>31</v>
+      </c>
+      <c r="B127" s="4">
+        <v>200</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
-        <v>51</v>
-      </c>
-      <c r="B121" s="4">
-        <v>1</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
-        <v>53</v>
-      </c>
-      <c r="B122" s="4">
-        <v>200</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
-        <v>55</v>
-      </c>
-      <c r="B123" s="4">
-        <v>200</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
-        <v>56</v>
-      </c>
-      <c r="B124" s="4">
-        <v>100</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
-        <v>57</v>
-      </c>
-      <c r="B125" s="4">
-        <v>10</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
-        <v>58</v>
-      </c>
-      <c r="B126" s="4">
-        <v>200</v>
-      </c>
-      <c r="C126" s="4" t="s">
+      <c r="E127" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G127" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
-        <v>59</v>
-      </c>
-      <c r="B127" s="4">
-        <v>50</v>
-      </c>
-      <c r="C127" s="4" t="s">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>30</v>
+      </c>
+      <c r="B128" s="4">
+        <v>200</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G128" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
-        <v>60</v>
-      </c>
-      <c r="B128" s="4">
-        <v>100</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B129" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>62</v>
+        <v>1001</v>
       </c>
       <c r="B130" s="4">
         <v>200</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>63</v>
+        <v>1002</v>
       </c>
       <c r="B131" s="4">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>64</v>
+        <v>1003</v>
       </c>
       <c r="B132" s="4">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>65</v>
+        <v>1004</v>
       </c>
       <c r="B133" s="4">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>66</v>
+        <v>1005</v>
       </c>
       <c r="B134" s="4">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>67</v>
+        <v>1067</v>
       </c>
       <c r="B135" s="4">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>68</v>
+        <v>1066</v>
       </c>
       <c r="B136" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>69</v>
+        <v>1071</v>
       </c>
       <c r="B137" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>70</v>
+        <v>1007</v>
       </c>
       <c r="B138" s="4">
         <v>200</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>72</v>
+        <v>1008</v>
       </c>
       <c r="B139" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>73</v>
+        <v>1070</v>
       </c>
       <c r="B140" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>125</v>
+        <v>365</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>74</v>
+        <v>1073</v>
       </c>
       <c r="B141" s="4">
         <v>200</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>195</v>
+        <v>366</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>75</v>
+        <v>1009</v>
       </c>
       <c r="B142" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>76</v>
+        <v>1010</v>
       </c>
       <c r="B143" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>77</v>
+        <v>1011</v>
       </c>
       <c r="B144" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>248</v>
+        <v>44</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>78</v>
+        <v>1074</v>
       </c>
       <c r="B145" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>127</v>
+        <v>367</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>79</v>
+        <v>1068</v>
       </c>
       <c r="B146" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>80</v>
+        <v>1012</v>
       </c>
       <c r="B147" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>81</v>
+        <v>1013</v>
       </c>
       <c r="B148" s="4">
         <v>200</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>82</v>
+        <v>1014</v>
       </c>
       <c r="B149" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>83</v>
+        <v>1072</v>
       </c>
       <c r="B150" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>133</v>
+        <v>48</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>84</v>
+        <v>1016</v>
       </c>
       <c r="B151" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>134</v>
+        <v>49</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>85</v>
+        <v>1017</v>
       </c>
       <c r="B152" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>135</v>
+        <v>50</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>86</v>
+        <v>1018</v>
       </c>
       <c r="B153" s="4">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>88</v>
+        <v>1019</v>
       </c>
       <c r="B154" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>136</v>
+        <v>52</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>89</v>
+        <v>1075</v>
       </c>
       <c r="B155" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>230</v>
+        <v>368</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>90</v>
+        <v>1076</v>
       </c>
       <c r="B156" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>230</v>
+        <v>369</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>92</v>
+        <v>1020</v>
       </c>
       <c r="B157" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>249</v>
+        <v>175</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>93</v>
+        <v>1021</v>
       </c>
       <c r="B158" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>94</v>
+        <v>1022</v>
       </c>
       <c r="B159" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>95</v>
+        <v>1023</v>
       </c>
       <c r="B160" s="4">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>242</v>
+        <v>55</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>96</v>
+        <v>1024</v>
       </c>
       <c r="B161" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>97</v>
+        <v>1026</v>
       </c>
       <c r="B162" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>98</v>
+        <v>1025</v>
       </c>
       <c r="B163" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>224</v>
+        <v>57</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>99</v>
+        <v>1027</v>
       </c>
       <c r="B164" s="4">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>100</v>
+        <v>1028</v>
       </c>
       <c r="B165" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>251</v>
+        <v>60</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>101</v>
+        <v>1029</v>
       </c>
       <c r="B166" s="4">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>252</v>
+        <v>61</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>102</v>
+        <v>1030</v>
       </c>
       <c r="B167" s="4">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>230</v>
+        <v>62</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>103</v>
+        <v>1031</v>
       </c>
       <c r="B168" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>256</v>
+        <v>63</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>104</v>
+        <v>1032</v>
       </c>
       <c r="B169" s="4">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>257</v>
+        <v>64</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>105</v>
+        <v>1033</v>
       </c>
       <c r="B170" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>259</v>
+        <v>65</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>106</v>
+        <v>1034</v>
       </c>
       <c r="B171" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>264</v>
+        <v>66</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>107</v>
+        <v>1035</v>
       </c>
       <c r="B172" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>266</v>
+        <v>67</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>108</v>
+        <v>1036</v>
       </c>
       <c r="B173" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>266</v>
+        <v>68</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>109</v>
+        <v>1037</v>
       </c>
       <c r="B174" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>266</v>
+        <v>69</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>110</v>
+        <v>1038</v>
       </c>
       <c r="B175" s="4">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>252</v>
+        <v>70</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>111</v>
+        <v>1039</v>
       </c>
       <c r="B176" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>271</v>
+        <v>72</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>112</v>
+        <v>1040</v>
       </c>
       <c r="B177" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>273</v>
+        <v>71</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>113</v>
+        <v>1041</v>
       </c>
       <c r="B178" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>274</v>
+        <v>73</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>114</v>
+        <v>1042</v>
       </c>
       <c r="B179" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>276</v>
+        <v>74</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>115</v>
+        <v>1043</v>
       </c>
       <c r="B180" s="4">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>278</v>
+        <v>75</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
-        <v>116</v>
+        <v>1044</v>
       </c>
       <c r="B181" s="4">
         <v>200</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>172</v>
+        <v>76</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
-        <v>117</v>
+        <v>1045</v>
       </c>
       <c r="B182" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>281</v>
+        <v>77</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>118</v>
+        <v>1046</v>
       </c>
       <c r="B183" s="4">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>282</v>
+        <v>78</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>119</v>
+        <v>1047</v>
       </c>
       <c r="B184" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>35</v>
+        <v>79</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
-        <v>120</v>
+        <v>1048</v>
       </c>
       <c r="B185" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>121</v>
+        <v>1049</v>
       </c>
       <c r="B186" s="4">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>287</v>
+        <v>81</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>122</v>
+        <v>1069</v>
       </c>
       <c r="B187" s="4">
         <v>200</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>289</v>
+        <v>82</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>123</v>
+        <v>1050</v>
       </c>
       <c r="B188" s="4">
         <v>200</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>291</v>
+        <v>83</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>124</v>
+        <v>1051</v>
       </c>
       <c r="B189" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>293</v>
+        <v>84</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>125</v>
+        <v>1052</v>
       </c>
       <c r="B190" s="4">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>295</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>126</v>
+        <v>1053</v>
       </c>
       <c r="B191" s="4">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>297</v>
+        <v>208</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>127</v>
+        <v>1054</v>
       </c>
       <c r="B192" s="4">
         <v>200</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>298</v>
+        <v>94</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>128</v>
+        <v>1055</v>
       </c>
       <c r="B193" s="4">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>300</v>
+        <v>209</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
-        <v>129</v>
+        <v>1056</v>
       </c>
       <c r="B194" s="4">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>345</v>
+        <v>210</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
-        <v>130</v>
+        <v>1057</v>
       </c>
       <c r="B195" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
-        <v>131</v>
+        <v>1058</v>
       </c>
       <c r="B196" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>304</v>
+        <v>142</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
-        <v>132</v>
+        <v>1059</v>
       </c>
       <c r="B197" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>304</v>
+        <v>142</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
-        <v>133</v>
+        <v>1060</v>
       </c>
       <c r="B198" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>304</v>
+        <v>142</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
-        <v>134</v>
+        <v>1061</v>
       </c>
       <c r="B199" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>304</v>
+        <v>142</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
-        <v>135</v>
+        <v>1062</v>
       </c>
       <c r="B200" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>304</v>
+        <v>142</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
-        <v>136</v>
+        <v>1063</v>
       </c>
       <c r="B201" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>323</v>
+        <v>176</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>304</v>
+        <v>142</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
-        <v>137</v>
+        <v>1064</v>
       </c>
       <c r="B202" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>304</v>
+        <v>142</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <v>138</v>
+        <v>1065</v>
       </c>
       <c r="B203" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>325</v>
+        <v>96</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>304</v>
+        <v>142</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B204" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>303</v>
+        <v>92</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E204" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E204" s="5" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="B205" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>303</v>
+        <v>92</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>327</v>
+        <v>117</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>304</v>
+        <v>158</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B206" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>303</v>
+        <v>92</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>304</v>
+        <v>286</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B207" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>303</v>
+        <v>90</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>329</v>
+        <v>112</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>304</v>
+        <v>156</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
+        <v>6</v>
+      </c>
+      <c r="B208" s="4">
+        <v>200</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>9</v>
+      </c>
+      <c r="B209" s="4">
+        <v>200</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>135</v>
+      </c>
+      <c r="B210" s="4">
+        <v>210</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>134</v>
+      </c>
+      <c r="B211" s="4">
+        <v>210</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>140</v>
+      </c>
+      <c r="B212" s="4">
+        <v>210</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>141</v>
+      </c>
+      <c r="B213" s="4">
+        <v>210</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
         <v>143</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B214" s="4">
         <v>210</v>
       </c>
-      <c r="C208" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D208" s="4" t="s">
+      <c r="C214" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>138</v>
+      </c>
+      <c r="B215" s="4">
+        <v>210</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>144</v>
+      </c>
+      <c r="B216" s="4">
+        <v>210</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>139</v>
+      </c>
+      <c r="B217" s="4">
+        <v>210</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>133</v>
+      </c>
+      <c r="B218" s="4">
+        <v>210</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>136</v>
+      </c>
+      <c r="B219" s="4">
+        <v>210</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>132</v>
+      </c>
+      <c r="B220" s="4">
+        <v>210</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>131</v>
+      </c>
+      <c r="B221" s="4">
+        <v>210</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>142</v>
+      </c>
+      <c r="B222" s="4">
+        <v>210</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>137</v>
+      </c>
+      <c r="B223" s="4">
+        <v>210</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>153</v>
+      </c>
+      <c r="B224" s="4">
+        <v>240</v>
+      </c>
+      <c r="C224" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="E208" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="3">
-        <v>144</v>
-      </c>
-      <c r="B209" s="4">
-        <v>210</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="3">
-        <v>145</v>
-      </c>
-      <c r="B210" s="4">
-        <v>10</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="3">
-        <v>146</v>
-      </c>
-      <c r="B211" s="4">
-        <v>200</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="3">
-        <v>147</v>
-      </c>
-      <c r="B212" s="4">
-        <v>100</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="3">
-        <v>148</v>
-      </c>
-      <c r="B213" s="4">
-        <v>50</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E213" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="3">
-        <v>149</v>
-      </c>
-      <c r="B214" s="4">
-        <v>50</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="3">
-        <v>150</v>
-      </c>
-      <c r="B215" s="4">
-        <v>50</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="3">
-        <v>151</v>
-      </c>
-      <c r="B216" s="4">
-        <v>50</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="3">
-        <v>152</v>
-      </c>
-      <c r="B217" s="4">
-        <v>240</v>
-      </c>
-      <c r="C217" s="4" t="s">
+      <c r="D224" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E224" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E217" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="3">
-        <v>153</v>
-      </c>
-      <c r="B218" s="4">
-        <v>240</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="3">
-        <v>154</v>
-      </c>
-      <c r="B219" s="4">
-        <v>10</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E219" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="3">
-        <v>155</v>
-      </c>
-      <c r="B220" s="4">
-        <v>0</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="3">
-        <v>156</v>
-      </c>
-      <c r="B221" s="4">
-        <v>254</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="3">
-        <v>157</v>
-      </c>
-      <c r="B222" s="4">
-        <v>20</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="3">
-        <v>158</v>
-      </c>
-      <c r="B223" s="9">
-        <v>100</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D223" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="E223" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="3">
-        <v>159</v>
-      </c>
-      <c r="B224" s="4">
-        <v>1</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E224" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
-        <v>160</v>
-      </c>
-      <c r="B225" s="9">
-        <v>100</v>
-      </c>
-      <c r="C225" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D225" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E225" s="10" t="s">
-        <v>354</v>
+        <v>152</v>
+      </c>
+      <c r="B225" s="4">
+        <v>240</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B226" s="4">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>351</v>
+        <v>261</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
-        <v>162</v>
-      </c>
-      <c r="B227" s="9">
-        <v>100</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E227" s="10" t="s">
-        <v>266</v>
+        <v>84</v>
+      </c>
+      <c r="B227" s="4">
+        <v>250</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="B228" s="4">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E228" s="5" t="s">
-        <v>357</v>
+        <v>274</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
-        <v>164</v>
-      </c>
-      <c r="B229" s="11">
-        <v>20</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D229" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="E229" s="5" t="s">
-        <v>242</v>
+        <v>130</v>
+      </c>
+      <c r="B229" s="4">
+        <v>250</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
+        <v>83</v>
+      </c>
+      <c r="B230" s="4">
+        <v>250</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="3">
+        <v>88</v>
+      </c>
+      <c r="B231" s="4">
+        <v>250</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
+        <v>85</v>
+      </c>
+      <c r="B232" s="4">
+        <v>250</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
+        <v>103</v>
+      </c>
+      <c r="B233" s="4">
+        <v>250</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
+        <v>92</v>
+      </c>
+      <c r="B234" s="4">
+        <v>250</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
+        <v>156</v>
+      </c>
+      <c r="B235" s="4">
+        <v>254</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5468,61 +5773,65 @@
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E127" r:id="rId1"/>
-    <hyperlink ref="E163" r:id="rId2"/>
-    <hyperlink ref="E104" r:id="rId3"/>
-    <hyperlink ref="E105" r:id="rId4"/>
-    <hyperlink ref="E155" r:id="rId5"/>
-    <hyperlink ref="E156" r:id="rId6"/>
-    <hyperlink ref="E121" r:id="rId7"/>
-    <hyperlink ref="E125" r:id="rId8"/>
-    <hyperlink ref="E160" r:id="rId9"/>
-    <hyperlink ref="E144" r:id="rId10"/>
-    <hyperlink ref="E165" r:id="rId11"/>
-    <hyperlink ref="E166" r:id="rId12"/>
-    <hyperlink ref="E167" r:id="rId13"/>
-    <hyperlink ref="E168" r:id="rId14"/>
-    <hyperlink ref="E170" r:id="rId15"/>
+    <hyperlink ref="E122" r:id="rId1"/>
+    <hyperlink ref="E123" r:id="rId2"/>
+    <hyperlink ref="E120" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E11" r:id="rId5"/>
+    <hyperlink ref="E12" r:id="rId6"/>
+    <hyperlink ref="E13" r:id="rId7"/>
+    <hyperlink ref="E26" r:id="rId8"/>
+    <hyperlink ref="E76" r:id="rId9"/>
+    <hyperlink ref="E46" r:id="rId10"/>
+    <hyperlink ref="E54" r:id="rId11"/>
+    <hyperlink ref="E19" r:id="rId12"/>
+    <hyperlink ref="E31" r:id="rId13"/>
+    <hyperlink ref="E233" r:id="rId14"/>
+    <hyperlink ref="E48" r:id="rId15"/>
     <hyperlink ref="C2" r:id="rId16"/>
-    <hyperlink ref="E171" r:id="rId17"/>
-    <hyperlink ref="E172" r:id="rId18"/>
-    <hyperlink ref="E173" r:id="rId19"/>
-    <hyperlink ref="E174" r:id="rId20"/>
-    <hyperlink ref="E175" r:id="rId21"/>
-    <hyperlink ref="E176" r:id="rId22"/>
-    <hyperlink ref="E177" r:id="rId23"/>
-    <hyperlink ref="E178" r:id="rId24"/>
-    <hyperlink ref="E180" r:id="rId25"/>
-    <hyperlink ref="E181" r:id="rId26"/>
-    <hyperlink ref="E182" r:id="rId27"/>
-    <hyperlink ref="E183" r:id="rId28"/>
-    <hyperlink ref="E184" r:id="rId29"/>
-    <hyperlink ref="E186" r:id="rId30"/>
-    <hyperlink ref="E187" r:id="rId31"/>
-    <hyperlink ref="E188" r:id="rId32"/>
-    <hyperlink ref="E189" r:id="rId33"/>
-    <hyperlink ref="E191" r:id="rId34"/>
-    <hyperlink ref="E192" r:id="rId35"/>
-    <hyperlink ref="E193" r:id="rId36"/>
-    <hyperlink ref="E210" r:id="rId37"/>
-    <hyperlink ref="E211" r:id="rId38"/>
-    <hyperlink ref="E212" r:id="rId39"/>
-    <hyperlink ref="E213" r:id="rId40"/>
-    <hyperlink ref="E214" r:id="rId41"/>
-    <hyperlink ref="E217" r:id="rId42"/>
-    <hyperlink ref="E218" r:id="rId43"/>
-    <hyperlink ref="E219" r:id="rId44"/>
-    <hyperlink ref="E220" r:id="rId45"/>
-    <hyperlink ref="E223" r:id="rId46"/>
-    <hyperlink ref="E225" r:id="rId47"/>
-    <hyperlink ref="E224" r:id="rId48"/>
-    <hyperlink ref="E226" r:id="rId49"/>
-    <hyperlink ref="E227" r:id="rId50"/>
-    <hyperlink ref="E228" r:id="rId51"/>
-    <hyperlink ref="E229" r:id="rId52"/>
+    <hyperlink ref="E226" r:id="rId17"/>
+    <hyperlink ref="E42" r:id="rId18"/>
+    <hyperlink ref="E39" r:id="rId19"/>
+    <hyperlink ref="E40" r:id="rId20"/>
+    <hyperlink ref="E21" r:id="rId21"/>
+    <hyperlink ref="E53" r:id="rId22"/>
+    <hyperlink ref="E57" r:id="rId23"/>
+    <hyperlink ref="E49" r:id="rId24"/>
+    <hyperlink ref="E75" r:id="rId25"/>
+    <hyperlink ref="E108" r:id="rId26"/>
+    <hyperlink ref="E63" r:id="rId27"/>
+    <hyperlink ref="E81" r:id="rId28"/>
+    <hyperlink ref="E9" r:id="rId29"/>
+    <hyperlink ref="E41" r:id="rId30"/>
+    <hyperlink ref="E206" r:id="rId31"/>
+    <hyperlink ref="E107" r:id="rId32"/>
+    <hyperlink ref="E84" r:id="rId33"/>
+    <hyperlink ref="E15" r:id="rId34"/>
+    <hyperlink ref="E104" r:id="rId35"/>
+    <hyperlink ref="E33" r:id="rId36"/>
+    <hyperlink ref="E20" r:id="rId37"/>
+    <hyperlink ref="E204" r:id="rId38"/>
+    <hyperlink ref="E56" r:id="rId39"/>
+    <hyperlink ref="E44" r:id="rId40"/>
+    <hyperlink ref="E45" r:id="rId41"/>
+    <hyperlink ref="E225" r:id="rId42"/>
+    <hyperlink ref="E224" r:id="rId43"/>
+    <hyperlink ref="E16" r:id="rId44"/>
+    <hyperlink ref="E5" r:id="rId45"/>
+    <hyperlink ref="E95" r:id="rId46"/>
+    <hyperlink ref="E61" r:id="rId47"/>
+    <hyperlink ref="E14" r:id="rId48"/>
+    <hyperlink ref="E59" r:id="rId49"/>
+    <hyperlink ref="E38" r:id="rId50"/>
+    <hyperlink ref="E23" r:id="rId51"/>
+    <hyperlink ref="E32" r:id="rId52"/>
+    <hyperlink ref="E43" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId53"/>
+  <legacyDrawing r:id="rId54"/>
+  <tableParts count="1">
+    <tablePart r:id="rId55"/>
+  </tableParts>
 </worksheet>
 </file>